--- a/code/Datasets_sources.xlsx
+++ b/code/Datasets_sources.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/diandra/rlp_meta/code/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE1C3431-C61D-EF4F-B197-8BE81C5FB54D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B647E8C5-7A5B-DF49-BD4D-617A633AAA1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11800" yWindow="1060" windowWidth="18900" windowHeight="19560" xr2:uid="{14579860-7547-C64A-9CCA-6A09215F8905}"/>
+    <workbookView xWindow="760" yWindow="1060" windowWidth="25640" windowHeight="19560" xr2:uid="{14579860-7547-C64A-9CCA-6A09215F8905}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="163">
   <si>
     <t>File v1</t>
   </si>
@@ -137,9 +137,6 @@
     <t>https://github.com/ventolab/cellphonedb-data/blob/master/data/interaction_input.csv</t>
   </si>
   <si>
-    <t>https://baderlab.org/CellCellInteractions?action=AttachFile&amp;do=view&amp;target=receptor_ligand_interactions_mitab_v1.0_April2017.txt.zip</t>
-  </si>
-  <si>
     <t>https://github.com/SCA-IRCM/LRdb/blob/master/LRdb_122019.txt</t>
   </si>
   <si>
@@ -159,12 +156,6 @@
   </si>
   <si>
     <t>ligand-receptor interactions and downstream signaling networks</t>
-  </si>
-  <si>
-    <t>CHECKed DIRECTIONALITY</t>
-  </si>
-  <si>
-    <t>incorporates intracellular signaling</t>
   </si>
   <si>
     <t>intercellular communication signals in the
@@ -186,12 +177,6 @@
     <t>ONLY LRP KEPT</t>
   </si>
   <si>
-    <t>Cell cell comunication CCC</t>
-  </si>
-  <si>
-    <t>REMOVED NON LIGAND-RECEPTOR INTERACTIONS, still neuronal</t>
-  </si>
-  <si>
     <t>REMOVED NON LIGAND-RECEPTOR INTERACTIONS</t>
   </si>
   <si>
@@ -240,12 +225,6 @@
     <t>ICELLNETdb_v2_new.xlsx</t>
   </si>
   <si>
-    <t>USES METABOLITES: SO DO NOT USE</t>
-  </si>
-  <si>
-    <t>TOT = 18</t>
-  </si>
-  <si>
     <t>N°</t>
   </si>
   <si>
@@ -351,15 +330,9 @@
     <t>Kept only ligand-receptor interactions</t>
   </si>
   <si>
-    <t>Folder</t>
-  </si>
-  <si>
     <t>CCIDB</t>
   </si>
   <si>
-    <t>Toronto</t>
-  </si>
-  <si>
     <t>SingleCellSignalIR</t>
   </si>
   <si>
@@ -376,13 +349,635 @@
   </si>
   <si>
     <t>Cellphone</t>
+  </si>
+  <si>
+    <t>213 of 520 CCIs are unique (38.65%): CellChatDB, LRDB, CellPhoneDB, BaderLabDB</t>
+  </si>
+  <si>
+    <t>BaderDB</t>
+  </si>
+  <si>
+    <t>USES METABOLITES: DO NOT USE</t>
+  </si>
+  <si>
+    <t>https://baderlab.org/CellCellInteractions; https://zenodo.org/records/7589953</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> literature data mining (PubMed); 105 751 literatures. Cell-cell interaction database by filtering existing curated protein-protein interaction (PPI) data: GO terms to define receptors (also Uniprot), ligands (also Secretome dataset) and ECM. ECM, Receptor and ligand lists were </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>manually curated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ - genes that were neither receptors or ligands were removed
+- misclassified genes were moved to the correct list (i.e. receptors found on the ligand list or vice versa)
+After curation, the resulting  sets consisted of: Receptors - 1851 genes; Ligands - 1593 genes; ECM - 433 genes. The set of protein interactions were downloaded from: iRefIndex, Pathway Commons, BioGRID. </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">REMOVED NON LIGAND-RECEPTOR INTERACTIONS, still neuronal </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>manual curation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of a new neural-specific Neurochat database containing 373 entries of intercellular molecular interactions for both human (190). NeuronChatDB is manually curated from existing databases (including KEGG and IUPHAR/BPS Guide to PHARMACOLOGY) and literature (Smith, S. J. et al. Single-cell transcriptomic evidence for dense intracortical neuropeptide networks. eLife 8, e47889 (2019).) .</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CCIs were </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>manually retrieved</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from 272 studies from biomedical journals with an impact factor higher than 5 and published within the past 6 years (PubMed);</t>
+    </r>
+  </si>
+  <si>
+    <t>text-mining + manual: 157 and 2,597 unique metabolites covered by scFEA and COMPASS. 1,240 metabolites with unique accession number from the HMDB. Narrowed down to 910 metabolites annotated as could be in extracellular space, blood, or cerebrospinal fluid</t>
+  </si>
+  <si>
+    <t>NicheNet</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The resulting Receptor-Ligand network contained 2,593 unique proteins and 38,446 unique interactions (115,900 interaction total): Qiao, Kirouac, Ramilowski, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>Rieckmann</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Comparison of tools that typically use gene expression information obtained by scRNA-Seq: CellChatDB, CellPhoneDB, Ramilowski (Connectome), </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>ConnectomeDB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, LRdb</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The connections between resources shown in the dependency plot were </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>manually gathered</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> from the publications and the web pages of each CCC resource.</t>
+    </r>
+  </si>
+  <si>
+    <t>Cell cell comunication CCC Comparison</t>
+  </si>
+  <si>
+    <t>TOT = 19</t>
+  </si>
+  <si>
+    <t>Bioinformatics, Volume 37, Issue 14, July 2021, Pages 2025–2032, https://doi.org/10.1093/bioinformatics/btab036</t>
+  </si>
+  <si>
+    <t>https://www.rna-society.org/cellinker/Download.html</t>
+  </si>
+  <si>
+    <t>Cellinker_Homos_2021.txt</t>
+  </si>
+  <si>
+    <t>Homo sapiens ligand-receptor interactions and annotations</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> manually curated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> literature-supported L–R interactions (PubMed, Web of Science, Scopus and MEDLINE) + DLRP, HPMR, IUPHAR/BPS, CellPhoneDB</t>
+    </r>
+  </si>
+  <si>
+    <t>CellPhoneDB</t>
+  </si>
+  <si>
+    <t>iTALK</t>
+  </si>
+  <si>
+    <t>CELLINKER</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CellPhoneDB, NicheNet, CellChat, ICELLNET, NATMI, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>cell2cell, CARNIVAL</t>
+    </r>
+  </si>
+  <si>
+    <t>Only in part is literature curated. It combines 103 resources to build an integrated database of molecular interactions, enzyme‐PTM (post‐translational modification) relationships, protein complexes and annotations about intercellular communication, and other functional attributes of proteins. In OmniPath, we included nine network datasets built from 61 resources: dbPTM, DEPOD, DOMINO, ELM for PPI</t>
+  </si>
+  <si>
+    <r>
+      <t>manually curated through</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> text mining and manual verification</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of known protein–protein interactions using the STRING database, with literature-supported evidence for each pair. Data resource: STRING, Literature.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">SingleCellSignalR + CellPhoneDB + Ramilowski + 377 unique human LRp </t>
+  </si>
+  <si>
+    <t>SingleCellSignalR + Ramilowski</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Literature curated. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">computes communication scores </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">between cells from their transcriptomic profiles relying on a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>manually curated database of ligand–receptor interactions.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Interactions included in ICELLNET are demonstrated experimentally in human systems and encompass the multiple subunits of protein complexes</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>manually curated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> additional ligand–receptor interactions experimentally demonstrated in human systems, with the help of recent ligand–receptor interaction screening studies, NATMI,  CellPhoneDB</t>
+    </r>
+  </si>
+  <si>
+    <t>CellChat and CellPhoneDB showed around 72% overlap between ICELLNET and at least one other resource, but also 468 interactions uniquely described in ICELLNET</t>
+  </si>
+  <si>
+    <t>CellPhoneDB, CellTalkDB</t>
+  </si>
+  <si>
+    <t>manually curated (PubMed, PM, KEGG); 176 literatures. CellChat quantifies the signaling communication probability between two cell groups using a simplified mass action-based model, which incorporates the core interaction between ligands and receptors with multi-subunit structure along with modulation by cofactors</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>manually curated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a literature-supported signaling molecule interaction database called
+CellChatDB. includes direct incorporation of spatial locations of cells, if available, to infer spatially proximal cell-cell communication, additional comparison functionalities, expanded database of ligand-receptor pairs along with rich annotations, and an Interactive CellChat Explorer</t>
+    </r>
+  </si>
+  <si>
+    <t>NATMI/ConnectomeDB</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">NATMI uses connectomeDB2020 (a database of 2293 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>manually curated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ligand-receptor pairs with literature support) to predict and visualise cell-to-cell communication networks from single-cell (or bulk) expression data. connectomeDB2020, an updated set of 2293 ligand–receptor pairs with primary literature support </t>
+    </r>
+  </si>
+  <si>
+    <t>1751 pairs from Ramilowski, 121 pairs from CellphoneDB v2.018, 50 pairs from RNA-Magnet19, 22 pairs from SingleCellSignalR20, 9 pairs from ICELLNET21, and 340 new manually curated pairs predominantly reported since the original publication</t>
+  </si>
+  <si>
+    <t>.xlsx</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> literature </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">data mining </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(PubMed); 2508 literatures. Literatures  + databases: Only in part is literature curated. Data resource: FANTOM5, HPMR, HPRD, Reactome, GO, IUPHAR/BPS, Uniprot, CellSignaling, UniProtKB/Swissprot, Literature</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Partial manual</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> literature extraction.</t>
+    </r>
+  </si>
+  <si>
+    <t>CellphoneDB + Ramilowski (FANTOM5)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Only in part is literature curated. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>manually curated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a unique list of ligand-receptor gene pairs based on previous efforts</t>
+    </r>
+  </si>
+  <si>
+    <t>Ramilowski</t>
+  </si>
+  <si>
+    <t>only LR pairs</t>
+  </si>
+  <si>
+    <t>Ramilowski, Omnipath, 51 unique ligands</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">method that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>predicts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ligand–target links between interacting cells by combining their expression data with prior knowledge on signaling and gene regulatory networks. Ligand–receptor interactions were collected from KEGG20, Ramilowski et al.21 and IUPHAR Guide to Pharmacology22 (via Harmonizome23). All ligands in the NicheNet ligand-receptor data sources were ranked according to the number of PubMed publications in which they are described </t>
+    </r>
+  </si>
+  <si>
+    <t>CHECKed DIRECTIONALITY, takes into account the subunit architecture of both ligands and receptors, representing heteromeric complexes accurately</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>manually curated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (PubMed, PMC); 103 literatures. Literatures  + databases. Data resources: Uniprot, I2D, IMEx, InnateDB, IntAct, MINT, MatrixDB, guidetopharmacology, Literature. use of public resources to annotate receptors and ligands, as well as manual curation of specific families of proteins involved in cell–cell communication</t>
+    </r>
+  </si>
+  <si>
+    <t>Ligand-receptor only</t>
+  </si>
+  <si>
+    <t>more manually curated interactions, making up to a total of ~3,000 interaction: Integrates new manually reviewed interactions with evidenced roles in cell-cell communication.
+Includes non-protein molecules acting as ligands.
+For interactions with a demonstrated signalling directionality, partners have been ordered according (ligand is partner A, receptor partner B).
+Interactions have been classified within signaling pathways.
+CellphoneDB no longer imports interactions from external resources. This is to avoid the inclusion of low-confidence interactions. Interaction_input from IMEx interactions + Guide to Pharmacology</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Identification of cell-cell crosstalk requires examining maternal and fetal cells jointly. inferred the cell-cell interactome by assessing the gene expression of receptor-ligand pairs across cell types. Ligands and receptors above the cut-off threshold of 10 TPM were used to construct lists of putative interactions. we approach this question by inferring the cell interactome of trophoblast cells and maternal decidua from single-cell transcriptomes, complemented with laser microdissected syncytiotrophoblast and cell culture of endometrial stromal cells. While the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inferred cell communication network</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> remains hypothetical, the coexpression of ligands and receptors in adjacent cells is stronger evidence for functional importance than the gene expression of a single cell type</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Databases: Only in part is literature curated. Data resource: DLRP, HPMR, IUPHAR, HPRD, STRING, Literature. systematically reviewed the expression profiles of 642 ligands and their 589 cognate receptors in our 1,894 literature-supported interacting pairs across a panel of 144 human primary cell types. downloaded the set of 19,074 HGNC18 protein-coding genes (03 April 2014) and used the subset of 19,053 genes with an existing UniProt ID. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Computationally inferred ligand–receptor pairs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (2,117) were obtained by searching for experimentally validated PPIs (HPRD and STRING)</t>
+    </r>
+  </si>
+  <si>
+    <t>RNA-seq data: Find all upregulated ligands in stromal cells, denoted by L, and all expressed receptors in tumor cells, denoted by R. All LR interactions with ligands in L and receptors in R are selected as potential crosstalks between stromal and tumor cells. For CCCExplorer analysis, RNA-seq reads were analyzed using the computational pipeline from the S.T.C.W. lab at Houston Methodist hospital for crosstalk analysis</t>
+  </si>
+  <si>
+    <t>Mostly included in newer dbs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Using gene ontology terms “cytokine activity,” “growth factor activity,” “hormone activity,” and “receptor activity,” 417 genes with ligand activity and 1,723 genes with receptor activity were compiled from BioMart. igand–receptor interaction pairs documented in public domains were compiled using the iRefWeb. Additional 38 ligand–receptor interaction pairs from literatures (as on 2013‐02‐04) were included. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Literature curated. A list of 270 ligand–receptor (I HAVE ONLY 232) interactions was </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>manually curated</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, largely based on the COPE database</t>
+    </r>
+  </si>
+  <si>
+    <t>Baccin2019</t>
+  </si>
+  <si>
+    <t>EMBRACE</t>
+  </si>
+  <si>
+    <t>CellCall</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -423,6 +1018,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -439,12 +1060,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
@@ -452,6 +1067,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,25 +1090,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -504,6 +1154,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3354114</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>11826</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CC8581-EA96-9E41-3D8E-7000178731AD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7860862"/>
+          <a:ext cx="11061700" cy="12230100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -823,10 +1522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC2F1791-A586-4340-A267-345E64ABD12A}">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:BV31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="62" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="75" zoomScaleNormal="58" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -836,19 +1535,22 @@
     <col min="5" max="5" width="47.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="42.33203125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="53.33203125" customWidth="1"/>
-    <col min="8" max="8" width="64.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="108.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="129.83203125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="103.6640625" customWidth="1"/>
+    <col min="11" max="11" width="69.5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="48.83203125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="115" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="92" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="79.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:74" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B1" t="s">
-        <v>104</v>
+        <v>127</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -857,7 +1559,7 @@
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
@@ -866,9 +1568,9 @@
         <v>3</v>
       </c>
       <c r="H1" t="s">
-        <v>94</v>
-      </c>
-      <c r="I1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
       <c r="J1" t="s">
@@ -890,519 +1592,2668 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:74" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AD2" s="2"/>
+      <c r="AE2" s="2"/>
+      <c r="AF2" s="2"/>
+      <c r="AG2" s="2"/>
+      <c r="AH2" s="2"/>
+      <c r="AI2" s="2"/>
+      <c r="AJ2" s="2"/>
+      <c r="AK2" s="2"/>
+      <c r="AL2" s="2"/>
+      <c r="AM2" s="2"/>
+      <c r="AN2" s="2"/>
+      <c r="AO2" s="2"/>
+      <c r="AP2" s="2"/>
+      <c r="AQ2" s="2"/>
+      <c r="AR2" s="2"/>
+      <c r="AS2" s="2"/>
+      <c r="AT2" s="2"/>
+      <c r="AU2" s="2"/>
+      <c r="AV2" s="2"/>
+      <c r="AW2" s="2"/>
+      <c r="AX2" s="2"/>
+      <c r="AY2" s="2"/>
+      <c r="AZ2" s="2"/>
+      <c r="BA2" s="2"/>
+      <c r="BB2" s="2"/>
+      <c r="BC2" s="2"/>
+      <c r="BD2" s="2"/>
+      <c r="BE2" s="2"/>
+      <c r="BF2" s="2"/>
+      <c r="BG2" s="2"/>
+      <c r="BH2" s="2"/>
+      <c r="BI2" s="2"/>
+      <c r="BJ2" s="2"/>
+      <c r="BK2" s="2"/>
+      <c r="BL2" s="2"/>
+      <c r="BM2" s="2"/>
+      <c r="BN2" s="2"/>
+      <c r="BO2" s="2"/>
+      <c r="BP2" s="2"/>
+      <c r="BQ2" s="2"/>
+      <c r="BR2" s="2"/>
+      <c r="BS2" s="2"/>
+      <c r="BT2" s="2"/>
+      <c r="BU2" s="2"/>
+      <c r="BV2" s="2"/>
+    </row>
+    <row r="3" spans="1:74" ht="51" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2"/>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+      <c r="AM3" s="2"/>
+      <c r="AN3" s="2"/>
+      <c r="AO3" s="2"/>
+      <c r="AP3" s="2"/>
+      <c r="AQ3" s="2"/>
+      <c r="AR3" s="2"/>
+      <c r="AS3" s="2"/>
+      <c r="AT3" s="2"/>
+      <c r="AU3" s="2"/>
+      <c r="AV3" s="2"/>
+      <c r="AW3" s="2"/>
+      <c r="AX3" s="2"/>
+      <c r="AY3" s="2"/>
+      <c r="AZ3" s="2"/>
+      <c r="BA3" s="2"/>
+      <c r="BB3" s="2"/>
+      <c r="BC3" s="2"/>
+      <c r="BD3" s="2"/>
+      <c r="BE3" s="2"/>
+      <c r="BF3" s="2"/>
+      <c r="BG3" s="2"/>
+      <c r="BH3" s="2"/>
+      <c r="BI3" s="2"/>
+      <c r="BJ3" s="2"/>
+      <c r="BK3" s="2"/>
+      <c r="BL3" s="2"/>
+      <c r="BM3" s="2"/>
+      <c r="BN3" s="2"/>
+      <c r="BO3" s="2"/>
+      <c r="BP3" s="2"/>
+      <c r="BQ3" s="2"/>
+      <c r="BR3" s="2"/>
+      <c r="BS3" s="2"/>
+      <c r="BT3" s="2"/>
+      <c r="BU3" s="2"/>
+      <c r="BV3" s="2"/>
+    </row>
+    <row r="4" spans="1:74" ht="51" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+      <c r="R4" s="2"/>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AD4" s="2"/>
+      <c r="AE4" s="2"/>
+      <c r="AF4" s="2"/>
+      <c r="AG4" s="2"/>
+      <c r="AH4" s="2"/>
+      <c r="AI4" s="2"/>
+      <c r="AJ4" s="2"/>
+      <c r="AK4" s="2"/>
+      <c r="AL4" s="2"/>
+      <c r="AM4" s="2"/>
+      <c r="AN4" s="2"/>
+      <c r="AO4" s="2"/>
+      <c r="AP4" s="2"/>
+      <c r="AQ4" s="2"/>
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="2"/>
+      <c r="AT4" s="2"/>
+      <c r="AU4" s="2"/>
+      <c r="AV4" s="2"/>
+      <c r="AW4" s="2"/>
+      <c r="AX4" s="2"/>
+      <c r="AY4" s="2"/>
+      <c r="AZ4" s="2"/>
+      <c r="BA4" s="2"/>
+      <c r="BB4" s="2"/>
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2"/>
+      <c r="BE4" s="2"/>
+      <c r="BF4" s="2"/>
+      <c r="BG4" s="2"/>
+      <c r="BH4" s="2"/>
+      <c r="BI4" s="2"/>
+      <c r="BJ4" s="2"/>
+      <c r="BK4" s="2"/>
+      <c r="BL4" s="2"/>
+      <c r="BM4" s="2"/>
+      <c r="BN4" s="2"/>
+      <c r="BO4" s="2"/>
+      <c r="BP4" s="2"/>
+      <c r="BQ4" s="2"/>
+      <c r="BR4" s="2"/>
+      <c r="BS4" s="2"/>
+      <c r="BT4" s="2"/>
+      <c r="BU4" s="2"/>
+      <c r="BV4" s="2"/>
+    </row>
+    <row r="5" spans="1:74" ht="68" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AD5" s="2"/>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
+      <c r="AK5" s="2"/>
+      <c r="AL5" s="2"/>
+      <c r="AM5" s="2"/>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
+      <c r="AT5" s="2"/>
+      <c r="AU5" s="2"/>
+      <c r="AV5" s="2"/>
+      <c r="AW5" s="2"/>
+      <c r="AX5" s="2"/>
+      <c r="AY5" s="2"/>
+      <c r="AZ5" s="2"/>
+      <c r="BA5" s="2"/>
+      <c r="BB5" s="2"/>
+      <c r="BC5" s="2"/>
+      <c r="BD5" s="2"/>
+      <c r="BE5" s="2"/>
+      <c r="BF5" s="2"/>
+      <c r="BG5" s="2"/>
+      <c r="BH5" s="2"/>
+      <c r="BI5" s="2"/>
+      <c r="BJ5" s="2"/>
+      <c r="BK5" s="2"/>
+      <c r="BL5" s="2"/>
+      <c r="BM5" s="2"/>
+      <c r="BN5" s="2"/>
+      <c r="BO5" s="2"/>
+      <c r="BP5" s="2"/>
+      <c r="BQ5" s="2"/>
+      <c r="BR5" s="2"/>
+      <c r="BS5" s="2"/>
+      <c r="BT5" s="2"/>
+      <c r="BU5" s="2"/>
+      <c r="BV5" s="2"/>
+    </row>
+    <row r="6" spans="1:74" ht="85" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
+      <c r="AT6" s="2"/>
+      <c r="AU6" s="2"/>
+      <c r="AV6" s="2"/>
+      <c r="AW6" s="2"/>
+      <c r="AX6" s="2"/>
+      <c r="AY6" s="2"/>
+      <c r="AZ6" s="2"/>
+      <c r="BA6" s="2"/>
+      <c r="BB6" s="2"/>
+      <c r="BC6" s="2"/>
+      <c r="BD6" s="2"/>
+      <c r="BE6" s="2"/>
+      <c r="BF6" s="2"/>
+      <c r="BG6" s="2"/>
+      <c r="BH6" s="2"/>
+      <c r="BI6" s="2"/>
+      <c r="BJ6" s="2"/>
+      <c r="BK6" s="2"/>
+      <c r="BL6" s="2"/>
+      <c r="BM6" s="2"/>
+      <c r="BN6" s="2"/>
+      <c r="BO6" s="2"/>
+      <c r="BP6" s="2"/>
+      <c r="BQ6" s="2"/>
+      <c r="BR6" s="2"/>
+      <c r="BS6" s="2"/>
+      <c r="BT6" s="2"/>
+      <c r="BU6" s="2"/>
+      <c r="BV6" s="2"/>
+    </row>
+    <row r="7" spans="1:74" ht="136" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
+      <c r="AT7" s="2"/>
+      <c r="AU7" s="2"/>
+      <c r="AV7" s="2"/>
+      <c r="AW7" s="2"/>
+      <c r="AX7" s="2"/>
+      <c r="AY7" s="2"/>
+      <c r="AZ7" s="2"/>
+      <c r="BA7" s="2"/>
+      <c r="BB7" s="2"/>
+      <c r="BC7" s="2"/>
+      <c r="BD7" s="2"/>
+      <c r="BE7" s="2"/>
+      <c r="BF7" s="2"/>
+      <c r="BG7" s="2"/>
+      <c r="BH7" s="2"/>
+      <c r="BI7" s="2"/>
+      <c r="BJ7" s="2"/>
+      <c r="BK7" s="2"/>
+      <c r="BL7" s="2"/>
+      <c r="BM7" s="2"/>
+      <c r="BN7" s="2"/>
+      <c r="BO7" s="2"/>
+      <c r="BP7" s="2"/>
+      <c r="BQ7" s="2"/>
+      <c r="BR7" s="2"/>
+      <c r="BS7" s="2"/>
+      <c r="BT7" s="2"/>
+      <c r="BU7" s="2"/>
+      <c r="BV7" s="2"/>
+    </row>
+    <row r="8" spans="1:74" ht="51" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="3"/>
+      <c r="N8" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
+      <c r="AT8" s="2"/>
+      <c r="AU8" s="2"/>
+      <c r="AV8" s="2"/>
+      <c r="AW8" s="2"/>
+      <c r="AX8" s="2"/>
+      <c r="AY8" s="2"/>
+      <c r="AZ8" s="2"/>
+      <c r="BA8" s="2"/>
+      <c r="BB8" s="2"/>
+      <c r="BC8" s="2"/>
+      <c r="BD8" s="2"/>
+      <c r="BE8" s="2"/>
+      <c r="BF8" s="2"/>
+      <c r="BG8" s="2"/>
+      <c r="BH8" s="2"/>
+      <c r="BI8" s="2"/>
+      <c r="BJ8" s="2"/>
+      <c r="BK8" s="2"/>
+      <c r="BL8" s="2"/>
+      <c r="BM8" s="2"/>
+      <c r="BN8" s="2"/>
+      <c r="BO8" s="2"/>
+      <c r="BP8" s="2"/>
+      <c r="BQ8" s="2"/>
+      <c r="BR8" s="2"/>
+      <c r="BS8" s="2"/>
+      <c r="BT8" s="2"/>
+      <c r="BU8" s="2"/>
+      <c r="BV8" s="2"/>
+    </row>
+    <row r="9" spans="1:74" ht="34" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="5"/>
+      <c r="N9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AD9" s="2"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
+      <c r="AT9" s="2"/>
+      <c r="AU9" s="2"/>
+      <c r="AV9" s="2"/>
+      <c r="AW9" s="2"/>
+      <c r="AX9" s="2"/>
+      <c r="AY9" s="2"/>
+      <c r="AZ9" s="2"/>
+      <c r="BA9" s="2"/>
+      <c r="BB9" s="2"/>
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2"/>
+      <c r="BE9" s="2"/>
+      <c r="BF9" s="2"/>
+      <c r="BG9" s="2"/>
+      <c r="BH9" s="2"/>
+      <c r="BI9" s="2"/>
+      <c r="BJ9" s="2"/>
+      <c r="BK9" s="2"/>
+      <c r="BL9" s="2"/>
+      <c r="BM9" s="2"/>
+      <c r="BN9" s="2"/>
+      <c r="BO9" s="2"/>
+      <c r="BP9" s="2"/>
+      <c r="BQ9" s="2"/>
+      <c r="BR9" s="2"/>
+      <c r="BS9" s="2"/>
+      <c r="BT9" s="2"/>
+      <c r="BU9" s="2"/>
+      <c r="BV9" s="2"/>
+    </row>
+    <row r="10" spans="1:74" ht="102" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="7"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AD10" s="2"/>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
+      <c r="AT10" s="2"/>
+      <c r="AU10" s="2"/>
+      <c r="AV10" s="2"/>
+      <c r="AW10" s="2"/>
+      <c r="AX10" s="2"/>
+      <c r="AY10" s="2"/>
+      <c r="AZ10" s="2"/>
+      <c r="BA10" s="2"/>
+      <c r="BB10" s="2"/>
+      <c r="BC10" s="2"/>
+      <c r="BD10" s="2"/>
+      <c r="BE10" s="2"/>
+      <c r="BF10" s="2"/>
+      <c r="BG10" s="2"/>
+      <c r="BH10" s="2"/>
+      <c r="BI10" s="2"/>
+      <c r="BJ10" s="2"/>
+      <c r="BK10" s="2"/>
+      <c r="BL10" s="2"/>
+      <c r="BM10" s="2"/>
+      <c r="BN10" s="2"/>
+      <c r="BO10" s="2"/>
+      <c r="BP10" s="2"/>
+      <c r="BQ10" s="2"/>
+      <c r="BR10" s="2"/>
+      <c r="BS10" s="2"/>
+      <c r="BT10" s="2"/>
+      <c r="BU10" s="2"/>
+      <c r="BV10" s="2"/>
+    </row>
+    <row r="11" spans="1:74" ht="34" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="2"/>
+      <c r="AF11" s="2"/>
+      <c r="AG11" s="2"/>
+      <c r="AH11" s="2"/>
+      <c r="AI11" s="2"/>
+      <c r="AJ11" s="2"/>
+      <c r="AK11" s="2"/>
+      <c r="AL11" s="2"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
+      <c r="AT11" s="2"/>
+      <c r="AU11" s="2"/>
+      <c r="AV11" s="2"/>
+      <c r="AW11" s="2"/>
+      <c r="AX11" s="2"/>
+      <c r="AY11" s="2"/>
+      <c r="AZ11" s="2"/>
+      <c r="BA11" s="2"/>
+      <c r="BB11" s="2"/>
+      <c r="BC11" s="2"/>
+      <c r="BD11" s="2"/>
+      <c r="BE11" s="2"/>
+      <c r="BF11" s="2"/>
+      <c r="BG11" s="2"/>
+      <c r="BH11" s="2"/>
+      <c r="BI11" s="2"/>
+      <c r="BJ11" s="2"/>
+      <c r="BK11" s="2"/>
+      <c r="BL11" s="2"/>
+      <c r="BM11" s="2"/>
+      <c r="BN11" s="2"/>
+      <c r="BO11" s="2"/>
+      <c r="BP11" s="2"/>
+      <c r="BQ11" s="2"/>
+      <c r="BR11" s="2"/>
+      <c r="BS11" s="2"/>
+      <c r="BT11" s="2"/>
+      <c r="BU11" s="2"/>
+      <c r="BV11" s="2"/>
+    </row>
+    <row r="12" spans="1:74" ht="68" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="3"/>
+      <c r="N12" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+      <c r="R12" s="2"/>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AD12" s="2"/>
+      <c r="AE12" s="2"/>
+      <c r="AF12" s="2"/>
+      <c r="AG12" s="2"/>
+      <c r="AH12" s="2"/>
+      <c r="AI12" s="2"/>
+      <c r="AJ12" s="2"/>
+      <c r="AK12" s="2"/>
+      <c r="AL12" s="2"/>
+      <c r="AM12" s="2"/>
+      <c r="AN12" s="2"/>
+      <c r="AO12" s="2"/>
+      <c r="AP12" s="2"/>
+      <c r="AQ12" s="2"/>
+      <c r="AR12" s="2"/>
+      <c r="AS12" s="2"/>
+      <c r="AT12" s="2"/>
+      <c r="AU12" s="2"/>
+      <c r="AV12" s="2"/>
+      <c r="AW12" s="2"/>
+      <c r="AX12" s="2"/>
+      <c r="AY12" s="2"/>
+      <c r="AZ12" s="2"/>
+      <c r="BA12" s="2"/>
+      <c r="BB12" s="2"/>
+      <c r="BC12" s="2"/>
+      <c r="BD12" s="2"/>
+      <c r="BE12" s="2"/>
+      <c r="BF12" s="2"/>
+      <c r="BG12" s="2"/>
+      <c r="BH12" s="2"/>
+      <c r="BI12" s="2"/>
+      <c r="BJ12" s="2"/>
+      <c r="BK12" s="2"/>
+      <c r="BL12" s="2"/>
+      <c r="BM12" s="2"/>
+      <c r="BN12" s="2"/>
+      <c r="BO12" s="2"/>
+      <c r="BP12" s="2"/>
+      <c r="BQ12" s="2"/>
+      <c r="BR12" s="2"/>
+      <c r="BS12" s="2"/>
+      <c r="BT12" s="2"/>
+      <c r="BU12" s="2"/>
+      <c r="BV12" s="2"/>
+    </row>
+    <row r="13" spans="1:74" ht="68" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+      <c r="R13" s="2"/>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AD13" s="2"/>
+      <c r="AE13" s="2"/>
+      <c r="AF13" s="2"/>
+      <c r="AG13" s="2"/>
+      <c r="AH13" s="2"/>
+      <c r="AI13" s="2"/>
+      <c r="AJ13" s="2"/>
+      <c r="AK13" s="2"/>
+      <c r="AL13" s="2"/>
+      <c r="AM13" s="2"/>
+      <c r="AN13" s="2"/>
+      <c r="AO13" s="2"/>
+      <c r="AP13" s="2"/>
+      <c r="AQ13" s="2"/>
+      <c r="AR13" s="2"/>
+      <c r="AS13" s="2"/>
+      <c r="AT13" s="2"/>
+      <c r="AU13" s="2"/>
+      <c r="AV13" s="2"/>
+      <c r="AW13" s="2"/>
+      <c r="AX13" s="2"/>
+      <c r="AY13" s="2"/>
+      <c r="AZ13" s="2"/>
+      <c r="BA13" s="2"/>
+      <c r="BB13" s="2"/>
+      <c r="BC13" s="2"/>
+      <c r="BD13" s="2"/>
+      <c r="BE13" s="2"/>
+      <c r="BF13" s="2"/>
+      <c r="BG13" s="2"/>
+      <c r="BH13" s="2"/>
+      <c r="BI13" s="2"/>
+      <c r="BJ13" s="2"/>
+      <c r="BK13" s="2"/>
+      <c r="BL13" s="2"/>
+      <c r="BM13" s="2"/>
+      <c r="BN13" s="2"/>
+      <c r="BO13" s="2"/>
+      <c r="BP13" s="2"/>
+      <c r="BQ13" s="2"/>
+      <c r="BR13" s="2"/>
+      <c r="BS13" s="2"/>
+      <c r="BT13" s="2"/>
+      <c r="BU13" s="2"/>
+      <c r="BV13" s="2"/>
+    </row>
+    <row r="14" spans="1:74" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+      <c r="R14" s="2"/>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AD14" s="2"/>
+      <c r="AE14" s="2"/>
+      <c r="AF14" s="2"/>
+      <c r="AG14" s="2"/>
+      <c r="AH14" s="2"/>
+      <c r="AI14" s="2"/>
+      <c r="AJ14" s="2"/>
+      <c r="AK14" s="2"/>
+      <c r="AL14" s="2"/>
+      <c r="AM14" s="2"/>
+      <c r="AN14" s="2"/>
+      <c r="AO14" s="2"/>
+      <c r="AP14" s="2"/>
+      <c r="AQ14" s="2"/>
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="2"/>
+      <c r="AT14" s="2"/>
+      <c r="AU14" s="2"/>
+      <c r="AV14" s="2"/>
+      <c r="AW14" s="2"/>
+      <c r="AX14" s="2"/>
+      <c r="AY14" s="2"/>
+      <c r="AZ14" s="2"/>
+      <c r="BA14" s="2"/>
+      <c r="BB14" s="2"/>
+      <c r="BC14" s="2"/>
+      <c r="BD14" s="2"/>
+      <c r="BE14" s="2"/>
+      <c r="BF14" s="2"/>
+      <c r="BG14" s="2"/>
+      <c r="BH14" s="2"/>
+      <c r="BI14" s="2"/>
+      <c r="BJ14" s="2"/>
+      <c r="BK14" s="2"/>
+      <c r="BL14" s="2"/>
+      <c r="BM14" s="2"/>
+      <c r="BN14" s="2"/>
+      <c r="BO14" s="2"/>
+      <c r="BP14" s="2"/>
+      <c r="BQ14" s="2"/>
+      <c r="BR14" s="2"/>
+      <c r="BS14" s="2"/>
+      <c r="BT14" s="2"/>
+      <c r="BU14" s="2"/>
+      <c r="BV14" s="2"/>
+    </row>
+    <row r="15" spans="1:74" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+      <c r="R15" s="2"/>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AD15" s="2"/>
+      <c r="AE15" s="2"/>
+      <c r="AF15" s="2"/>
+      <c r="AG15" s="2"/>
+      <c r="AH15" s="2"/>
+      <c r="AI15" s="2"/>
+      <c r="AJ15" s="2"/>
+      <c r="AK15" s="2"/>
+      <c r="AL15" s="2"/>
+      <c r="AM15" s="2"/>
+      <c r="AN15" s="2"/>
+      <c r="AO15" s="2"/>
+      <c r="AP15" s="2"/>
+      <c r="AQ15" s="2"/>
+      <c r="AR15" s="2"/>
+      <c r="AS15" s="2"/>
+      <c r="AT15" s="2"/>
+      <c r="AU15" s="2"/>
+      <c r="AV15" s="2"/>
+      <c r="AW15" s="2"/>
+      <c r="AX15" s="2"/>
+      <c r="AY15" s="2"/>
+      <c r="AZ15" s="2"/>
+      <c r="BA15" s="2"/>
+      <c r="BB15" s="2"/>
+      <c r="BC15" s="2"/>
+      <c r="BD15" s="2"/>
+      <c r="BE15" s="2"/>
+      <c r="BF15" s="2"/>
+      <c r="BG15" s="2"/>
+      <c r="BH15" s="2"/>
+      <c r="BI15" s="2"/>
+      <c r="BJ15" s="2"/>
+      <c r="BK15" s="2"/>
+      <c r="BL15" s="2"/>
+      <c r="BM15" s="2"/>
+      <c r="BN15" s="2"/>
+      <c r="BO15" s="2"/>
+      <c r="BP15" s="2"/>
+      <c r="BQ15" s="2"/>
+      <c r="BR15" s="2"/>
+      <c r="BS15" s="2"/>
+      <c r="BT15" s="2"/>
+      <c r="BU15" s="2"/>
+      <c r="BV15" s="2"/>
+    </row>
+    <row r="16" spans="1:74" ht="51" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H2" s="5" t="s">
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="3"/>
+      <c r="N16" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AD16" s="2"/>
+      <c r="AE16" s="2"/>
+      <c r="AF16" s="2"/>
+      <c r="AG16" s="2"/>
+      <c r="AH16" s="2"/>
+      <c r="AI16" s="2"/>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="2"/>
+      <c r="AL16" s="2"/>
+      <c r="AM16" s="2"/>
+      <c r="AN16" s="2"/>
+      <c r="AO16" s="2"/>
+      <c r="AP16" s="2"/>
+      <c r="AQ16" s="2"/>
+      <c r="AR16" s="2"/>
+      <c r="AS16" s="2"/>
+      <c r="AT16" s="2"/>
+      <c r="AU16" s="2"/>
+      <c r="AV16" s="2"/>
+      <c r="AW16" s="2"/>
+      <c r="AX16" s="2"/>
+      <c r="AY16" s="2"/>
+      <c r="AZ16" s="2"/>
+      <c r="BA16" s="2"/>
+      <c r="BB16" s="2"/>
+      <c r="BC16" s="2"/>
+      <c r="BD16" s="2"/>
+      <c r="BE16" s="2"/>
+      <c r="BF16" s="2"/>
+      <c r="BG16" s="2"/>
+      <c r="BH16" s="2"/>
+      <c r="BI16" s="2"/>
+      <c r="BJ16" s="2"/>
+      <c r="BK16" s="2"/>
+      <c r="BL16" s="2"/>
+      <c r="BM16" s="2"/>
+      <c r="BN16" s="2"/>
+      <c r="BO16" s="2"/>
+      <c r="BP16" s="2"/>
+      <c r="BQ16" s="2"/>
+      <c r="BR16" s="2"/>
+      <c r="BS16" s="2"/>
+      <c r="BT16" s="2"/>
+      <c r="BU16" s="2"/>
+      <c r="BV16" s="2"/>
+    </row>
+    <row r="17" spans="1:74" ht="51" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="L17" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M17" s="3"/>
+      <c r="N17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AD17" s="2"/>
+      <c r="AE17" s="2"/>
+      <c r="AF17" s="2"/>
+      <c r="AG17" s="2"/>
+      <c r="AH17" s="2"/>
+      <c r="AI17" s="2"/>
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="2"/>
+      <c r="AL17" s="2"/>
+      <c r="AM17" s="2"/>
+      <c r="AN17" s="2"/>
+      <c r="AO17" s="2"/>
+      <c r="AP17" s="2"/>
+      <c r="AQ17" s="2"/>
+      <c r="AR17" s="2"/>
+      <c r="AS17" s="2"/>
+      <c r="AT17" s="2"/>
+      <c r="AU17" s="2"/>
+      <c r="AV17" s="2"/>
+      <c r="AW17" s="2"/>
+      <c r="AX17" s="2"/>
+      <c r="AY17" s="2"/>
+      <c r="AZ17" s="2"/>
+      <c r="BA17" s="2"/>
+      <c r="BB17" s="2"/>
+      <c r="BC17" s="2"/>
+      <c r="BD17" s="2"/>
+      <c r="BE17" s="2"/>
+      <c r="BF17" s="2"/>
+      <c r="BG17" s="2"/>
+      <c r="BH17" s="2"/>
+      <c r="BI17" s="2"/>
+      <c r="BJ17" s="2"/>
+      <c r="BK17" s="2"/>
+      <c r="BL17" s="2"/>
+      <c r="BM17" s="2"/>
+      <c r="BN17" s="2"/>
+      <c r="BO17" s="2"/>
+      <c r="BP17" s="2"/>
+      <c r="BQ17" s="2"/>
+      <c r="BR17" s="2"/>
+      <c r="BS17" s="2"/>
+      <c r="BT17" s="2"/>
+      <c r="BU17" s="2"/>
+      <c r="BV17" s="2"/>
+    </row>
+    <row r="18" spans="1:74" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AD18" s="2"/>
+      <c r="AE18" s="2"/>
+      <c r="AF18" s="2"/>
+      <c r="AG18" s="2"/>
+      <c r="AH18" s="2"/>
+      <c r="AI18" s="2"/>
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="2"/>
+      <c r="AL18" s="2"/>
+      <c r="AM18" s="2"/>
+      <c r="AN18" s="2"/>
+      <c r="AO18" s="2"/>
+      <c r="AP18" s="2"/>
+      <c r="AQ18" s="2"/>
+      <c r="AR18" s="2"/>
+      <c r="AS18" s="2"/>
+      <c r="AT18" s="2"/>
+      <c r="AU18" s="2"/>
+      <c r="AV18" s="2"/>
+      <c r="AW18" s="2"/>
+      <c r="AX18" s="2"/>
+      <c r="AY18" s="2"/>
+      <c r="AZ18" s="2"/>
+      <c r="BA18" s="2"/>
+      <c r="BB18" s="2"/>
+      <c r="BC18" s="2"/>
+      <c r="BD18" s="2"/>
+      <c r="BE18" s="2"/>
+      <c r="BF18" s="2"/>
+      <c r="BG18" s="2"/>
+      <c r="BH18" s="2"/>
+      <c r="BI18" s="2"/>
+      <c r="BJ18" s="2"/>
+      <c r="BK18" s="2"/>
+      <c r="BL18" s="2"/>
+      <c r="BM18" s="2"/>
+      <c r="BN18" s="2"/>
+      <c r="BO18" s="2"/>
+      <c r="BP18" s="2"/>
+      <c r="BQ18" s="2"/>
+      <c r="BR18" s="2"/>
+      <c r="BS18" s="2"/>
+      <c r="BT18" s="2"/>
+      <c r="BU18" s="2"/>
+      <c r="BV18" s="2"/>
+    </row>
+    <row r="19" spans="1:74" ht="51" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="H19" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="I19" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M2" s="5"/>
-      <c r="N2" s="8" t="s">
-        <v>77</v>
-      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+      <c r="AM19" s="2"/>
+      <c r="AN19" s="2"/>
+      <c r="AO19" s="2"/>
+      <c r="AP19" s="2"/>
+      <c r="AQ19" s="2"/>
+      <c r="AR19" s="2"/>
+      <c r="AS19" s="2"/>
+      <c r="AT19" s="2"/>
+      <c r="AU19" s="2"/>
+      <c r="AV19" s="2"/>
+      <c r="AW19" s="2"/>
+      <c r="AX19" s="2"/>
+      <c r="AY19" s="2"/>
+      <c r="AZ19" s="2"/>
+      <c r="BA19" s="2"/>
+      <c r="BB19" s="2"/>
+      <c r="BC19" s="2"/>
+      <c r="BD19" s="2"/>
+      <c r="BE19" s="2"/>
+      <c r="BF19" s="2"/>
+      <c r="BG19" s="2"/>
+      <c r="BH19" s="2"/>
+      <c r="BI19" s="2"/>
+      <c r="BJ19" s="2"/>
+      <c r="BK19" s="2"/>
+      <c r="BL19" s="2"/>
+      <c r="BM19" s="2"/>
+      <c r="BN19" s="2"/>
+      <c r="BO19" s="2"/>
+      <c r="BP19" s="2"/>
+      <c r="BQ19" s="2"/>
+      <c r="BR19" s="2"/>
+      <c r="BS19" s="2"/>
+      <c r="BT19" s="2"/>
+      <c r="BU19" s="2"/>
+      <c r="BV19" s="2"/>
     </row>
-    <row r="3" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H3" t="s">
+    <row r="20" spans="1:74" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="L3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M3" s="5"/>
-      <c r="N3" s="8" t="s">
-        <v>78</v>
-      </c>
+      <c r="I20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="J20" s="2"/>
+      <c r="K20" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="L20" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AD20" s="2"/>
+      <c r="AE20" s="2"/>
+      <c r="AF20" s="2"/>
+      <c r="AG20" s="2"/>
+      <c r="AH20" s="2"/>
+      <c r="AI20" s="2"/>
+      <c r="AJ20" s="2"/>
+      <c r="AK20" s="2"/>
+      <c r="AL20" s="2"/>
+      <c r="AM20" s="2"/>
+      <c r="AN20" s="2"/>
+      <c r="AO20" s="2"/>
+      <c r="AP20" s="2"/>
+      <c r="AQ20" s="2"/>
+      <c r="AR20" s="2"/>
+      <c r="AS20" s="2"/>
+      <c r="AT20" s="2"/>
+      <c r="AU20" s="2"/>
+      <c r="AV20" s="2"/>
+      <c r="AW20" s="2"/>
+      <c r="AX20" s="2"/>
+      <c r="AY20" s="2"/>
+      <c r="AZ20" s="2"/>
+      <c r="BA20" s="2"/>
+      <c r="BB20" s="2"/>
+      <c r="BC20" s="2"/>
+      <c r="BD20" s="2"/>
+      <c r="BE20" s="2"/>
+      <c r="BF20" s="2"/>
+      <c r="BG20" s="2"/>
+      <c r="BH20" s="2"/>
+      <c r="BI20" s="2"/>
+      <c r="BJ20" s="2"/>
+      <c r="BK20" s="2"/>
+      <c r="BL20" s="2"/>
+      <c r="BM20" s="2"/>
+      <c r="BN20" s="2"/>
+      <c r="BO20" s="2"/>
+      <c r="BP20" s="2"/>
+      <c r="BQ20" s="2"/>
+      <c r="BR20" s="2"/>
+      <c r="BS20" s="2"/>
+      <c r="BT20" s="2"/>
+      <c r="BU20" s="2"/>
+      <c r="BV20" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" t="s">
-        <v>97</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="5"/>
-      <c r="N4" t="s">
-        <v>79</v>
-      </c>
+    <row r="21" spans="1:74" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="J21" s="2"/>
+      <c r="K21" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="L21" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AD21" s="2"/>
+      <c r="AE21" s="2"/>
+      <c r="AF21" s="2"/>
+      <c r="AG21" s="2"/>
+      <c r="AH21" s="2"/>
+      <c r="AI21" s="2"/>
+      <c r="AJ21" s="2"/>
+      <c r="AK21" s="2"/>
+      <c r="AL21" s="2"/>
+      <c r="AM21" s="2"/>
+      <c r="AN21" s="2"/>
+      <c r="AO21" s="2"/>
+      <c r="AP21" s="2"/>
+      <c r="AQ21" s="2"/>
+      <c r="AR21" s="2"/>
+      <c r="AS21" s="2"/>
+      <c r="AT21" s="2"/>
+      <c r="AU21" s="2"/>
+      <c r="AV21" s="2"/>
+      <c r="AW21" s="2"/>
+      <c r="AX21" s="2"/>
+      <c r="AY21" s="2"/>
+      <c r="AZ21" s="2"/>
+      <c r="BA21" s="2"/>
+      <c r="BB21" s="2"/>
+      <c r="BC21" s="2"/>
+      <c r="BD21" s="2"/>
+      <c r="BE21" s="2"/>
+      <c r="BF21" s="2"/>
+      <c r="BG21" s="2"/>
+      <c r="BH21" s="2"/>
+      <c r="BI21" s="2"/>
+      <c r="BJ21" s="2"/>
+      <c r="BK21" s="2"/>
+      <c r="BL21" s="2"/>
+      <c r="BM21" s="2"/>
+      <c r="BN21" s="2"/>
+      <c r="BO21" s="2"/>
+      <c r="BP21" s="2"/>
+      <c r="BQ21" s="2"/>
+      <c r="BR21" s="2"/>
+      <c r="BS21" s="2"/>
+      <c r="BT21" s="2"/>
+      <c r="BU21" s="2"/>
+      <c r="BV21" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="5"/>
-      <c r="N5" t="s">
-        <v>80</v>
-      </c>
+    <row r="22" spans="1:74" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AD22" s="2"/>
+      <c r="AE22" s="2"/>
+      <c r="AF22" s="2"/>
+      <c r="AG22" s="2"/>
+      <c r="AH22" s="2"/>
+      <c r="AI22" s="2"/>
+      <c r="AJ22" s="2"/>
+      <c r="AK22" s="2"/>
+      <c r="AL22" s="2"/>
+      <c r="AM22" s="2"/>
+      <c r="AN22" s="2"/>
+      <c r="AO22" s="2"/>
+      <c r="AP22" s="2"/>
+      <c r="AQ22" s="2"/>
+      <c r="AR22" s="2"/>
+      <c r="AS22" s="2"/>
+      <c r="AT22" s="2"/>
+      <c r="AU22" s="2"/>
+      <c r="AV22" s="2"/>
+      <c r="AW22" s="2"/>
+      <c r="AX22" s="2"/>
+      <c r="AY22" s="2"/>
+      <c r="AZ22" s="2"/>
+      <c r="BA22" s="2"/>
+      <c r="BB22" s="2"/>
+      <c r="BC22" s="2"/>
+      <c r="BD22" s="2"/>
+      <c r="BE22" s="2"/>
+      <c r="BF22" s="2"/>
+      <c r="BG22" s="2"/>
+      <c r="BH22" s="2"/>
+      <c r="BI22" s="2"/>
+      <c r="BJ22" s="2"/>
+      <c r="BK22" s="2"/>
+      <c r="BL22" s="2"/>
+      <c r="BM22" s="2"/>
+      <c r="BN22" s="2"/>
+      <c r="BO22" s="2"/>
+      <c r="BP22" s="2"/>
+      <c r="BQ22" s="2"/>
+      <c r="BR22" s="2"/>
+      <c r="BS22" s="2"/>
+      <c r="BT22" s="2"/>
+      <c r="BU22" s="2"/>
+      <c r="BV22" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="5"/>
-      <c r="N6" t="s">
-        <v>81</v>
-      </c>
+    <row r="23" spans="1:74" ht="17" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="2"/>
+      <c r="Q23" s="2"/>
+      <c r="R23" s="2"/>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="2"/>
+      <c r="X23" s="2"/>
+      <c r="Y23" s="2"/>
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+      <c r="AC23" s="2"/>
+      <c r="AD23" s="2"/>
+      <c r="AE23" s="2"/>
+      <c r="AF23" s="2"/>
+      <c r="AG23" s="2"/>
+      <c r="AH23" s="2"/>
+      <c r="AI23" s="2"/>
+      <c r="AJ23" s="2"/>
+      <c r="AK23" s="2"/>
+      <c r="AL23" s="2"/>
+      <c r="AM23" s="2"/>
+      <c r="AN23" s="2"/>
+      <c r="AO23" s="2"/>
+      <c r="AP23" s="2"/>
+      <c r="AQ23" s="2"/>
+      <c r="AR23" s="2"/>
+      <c r="AS23" s="2"/>
+      <c r="AT23" s="2"/>
+      <c r="AU23" s="2"/>
+      <c r="AV23" s="2"/>
+      <c r="AW23" s="2"/>
+      <c r="AX23" s="2"/>
+      <c r="AY23" s="2"/>
+      <c r="AZ23" s="2"/>
+      <c r="BA23" s="2"/>
+      <c r="BB23" s="2"/>
+      <c r="BC23" s="2"/>
+      <c r="BD23" s="2"/>
+      <c r="BE23" s="2"/>
+      <c r="BF23" s="2"/>
+      <c r="BG23" s="2"/>
+      <c r="BH23" s="2"/>
+      <c r="BI23" s="2"/>
+      <c r="BJ23" s="2"/>
+      <c r="BK23" s="2"/>
+      <c r="BL23" s="2"/>
+      <c r="BM23" s="2"/>
+      <c r="BN23" s="2"/>
+      <c r="BO23" s="2"/>
+      <c r="BP23" s="2"/>
+      <c r="BQ23" s="2"/>
+      <c r="BR23" s="2"/>
+      <c r="BS23" s="2"/>
+      <c r="BT23" s="2"/>
+      <c r="BU23" s="2"/>
+      <c r="BV23" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="N7" t="s">
-        <v>82</v>
-      </c>
-      <c r="O7" t="s">
-        <v>83</v>
-      </c>
+    <row r="24" spans="1:74" ht="17" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="2"/>
+      <c r="Q24" s="2"/>
+      <c r="R24" s="2"/>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="2"/>
+      <c r="X24" s="2"/>
+      <c r="Y24" s="2"/>
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+      <c r="AC24" s="2"/>
+      <c r="AD24" s="2"/>
+      <c r="AE24" s="2"/>
+      <c r="AF24" s="2"/>
+      <c r="AG24" s="2"/>
+      <c r="AH24" s="2"/>
+      <c r="AI24" s="2"/>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="2"/>
+      <c r="AL24" s="2"/>
+      <c r="AM24" s="2"/>
+      <c r="AN24" s="2"/>
+      <c r="AO24" s="2"/>
+      <c r="AP24" s="2"/>
+      <c r="AQ24" s="2"/>
+      <c r="AR24" s="2"/>
+      <c r="AS24" s="2"/>
+      <c r="AT24" s="2"/>
+      <c r="AU24" s="2"/>
+      <c r="AV24" s="2"/>
+      <c r="AW24" s="2"/>
+      <c r="AX24" s="2"/>
+      <c r="AY24" s="2"/>
+      <c r="AZ24" s="2"/>
+      <c r="BA24" s="2"/>
+      <c r="BB24" s="2"/>
+      <c r="BC24" s="2"/>
+      <c r="BD24" s="2"/>
+      <c r="BE24" s="2"/>
+      <c r="BF24" s="2"/>
+      <c r="BG24" s="2"/>
+      <c r="BH24" s="2"/>
+      <c r="BI24" s="2"/>
+      <c r="BJ24" s="2"/>
+      <c r="BK24" s="2"/>
+      <c r="BL24" s="2"/>
+      <c r="BM24" s="2"/>
+      <c r="BN24" s="2"/>
+      <c r="BO24" s="2"/>
+      <c r="BP24" s="2"/>
+      <c r="BQ24" s="2"/>
+      <c r="BR24" s="2"/>
+      <c r="BS24" s="2"/>
+      <c r="BT24" s="2"/>
+      <c r="BU24" s="2"/>
+      <c r="BV24" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M8" s="5"/>
-      <c r="N8" t="s">
-        <v>84</v>
-      </c>
+    <row r="25" spans="1:74" ht="17" x14ac:dyDescent="0.2">
+      <c r="A25" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="2"/>
+      <c r="Q25" s="2"/>
+      <c r="R25" s="2"/>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="2"/>
+      <c r="X25" s="2"/>
+      <c r="Y25" s="2"/>
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+      <c r="AC25" s="2"/>
+      <c r="AD25" s="2"/>
+      <c r="AE25" s="2"/>
+      <c r="AF25" s="2"/>
+      <c r="AG25" s="2"/>
+      <c r="AH25" s="2"/>
+      <c r="AI25" s="2"/>
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="2"/>
+      <c r="AL25" s="2"/>
+      <c r="AM25" s="2"/>
+      <c r="AN25" s="2"/>
+      <c r="AO25" s="2"/>
+      <c r="AP25" s="2"/>
+      <c r="AQ25" s="2"/>
+      <c r="AR25" s="2"/>
+      <c r="AS25" s="2"/>
+      <c r="AT25" s="2"/>
+      <c r="AU25" s="2"/>
+      <c r="AV25" s="2"/>
+      <c r="AW25" s="2"/>
+      <c r="AX25" s="2"/>
+      <c r="AY25" s="2"/>
+      <c r="AZ25" s="2"/>
+      <c r="BA25" s="2"/>
+      <c r="BB25" s="2"/>
+      <c r="BC25" s="2"/>
+      <c r="BD25" s="2"/>
+      <c r="BE25" s="2"/>
+      <c r="BF25" s="2"/>
+      <c r="BG25" s="2"/>
+      <c r="BH25" s="2"/>
+      <c r="BI25" s="2"/>
+      <c r="BJ25" s="2"/>
+      <c r="BK25" s="2"/>
+      <c r="BL25" s="2"/>
+      <c r="BM25" s="2"/>
+      <c r="BN25" s="2"/>
+      <c r="BO25" s="2"/>
+      <c r="BP25" s="2"/>
+      <c r="BQ25" s="2"/>
+      <c r="BR25" s="2"/>
+      <c r="BS25" s="2"/>
+      <c r="BT25" s="2"/>
+      <c r="BU25" s="2"/>
+      <c r="BV25" s="2"/>
     </row>
-    <row r="9" spans="1:15" ht="34" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M9" s="6"/>
-      <c r="N9" t="s">
-        <v>85</v>
-      </c>
+    <row r="26" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="2"/>
+      <c r="Q26" s="2"/>
+      <c r="R26" s="2"/>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="2"/>
+      <c r="X26" s="2"/>
+      <c r="Y26" s="2"/>
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+      <c r="AC26" s="2"/>
+      <c r="AD26" s="2"/>
+      <c r="AE26" s="2"/>
+      <c r="AF26" s="2"/>
+      <c r="AG26" s="2"/>
+      <c r="AH26" s="2"/>
+      <c r="AI26" s="2"/>
+      <c r="AJ26" s="2"/>
+      <c r="AK26" s="2"/>
+      <c r="AL26" s="2"/>
+      <c r="AM26" s="2"/>
+      <c r="AN26" s="2"/>
+      <c r="AO26" s="2"/>
+      <c r="AP26" s="2"/>
+      <c r="AQ26" s="2"/>
+      <c r="AR26" s="2"/>
+      <c r="AS26" s="2"/>
+      <c r="AT26" s="2"/>
+      <c r="AU26" s="2"/>
+      <c r="AV26" s="2"/>
+      <c r="AW26" s="2"/>
+      <c r="AX26" s="2"/>
+      <c r="AY26" s="2"/>
+      <c r="AZ26" s="2"/>
+      <c r="BA26" s="2"/>
+      <c r="BB26" s="2"/>
+      <c r="BC26" s="2"/>
+      <c r="BD26" s="2"/>
+      <c r="BE26" s="2"/>
+      <c r="BF26" s="2"/>
+      <c r="BG26" s="2"/>
+      <c r="BH26" s="2"/>
+      <c r="BI26" s="2"/>
+      <c r="BJ26" s="2"/>
+      <c r="BK26" s="2"/>
+      <c r="BL26" s="2"/>
+      <c r="BM26" s="2"/>
+      <c r="BN26" s="2"/>
+      <c r="BO26" s="2"/>
+      <c r="BP26" s="2"/>
+      <c r="BQ26" s="2"/>
+      <c r="BR26" s="2"/>
+      <c r="BS26" s="2"/>
+      <c r="BT26" s="2"/>
+      <c r="BU26" s="2"/>
+      <c r="BV26" s="2"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M10" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="N10" t="s">
-        <v>86</v>
-      </c>
+    <row r="27" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2"/>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+      <c r="AP27" s="2"/>
+      <c r="AQ27" s="2"/>
+      <c r="AR27" s="2"/>
+      <c r="AS27" s="2"/>
+      <c r="AT27" s="2"/>
+      <c r="AU27" s="2"/>
+      <c r="AV27" s="2"/>
+      <c r="AW27" s="2"/>
+      <c r="AX27" s="2"/>
+      <c r="AY27" s="2"/>
+      <c r="AZ27" s="2"/>
+      <c r="BA27" s="2"/>
+      <c r="BB27" s="2"/>
+      <c r="BC27" s="2"/>
+      <c r="BD27" s="2"/>
+      <c r="BE27" s="2"/>
+      <c r="BF27" s="2"/>
+      <c r="BG27" s="2"/>
+      <c r="BH27" s="2"/>
+      <c r="BI27" s="2"/>
+      <c r="BJ27" s="2"/>
+      <c r="BK27" s="2"/>
+      <c r="BL27" s="2"/>
+      <c r="BM27" s="2"/>
+      <c r="BN27" s="2"/>
+      <c r="BO27" s="2"/>
+      <c r="BP27" s="2"/>
+      <c r="BQ27" s="2"/>
+      <c r="BR27" s="2"/>
+      <c r="BS27" s="2"/>
+      <c r="BT27" s="2"/>
+      <c r="BU27" s="2"/>
+      <c r="BV27" s="2"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="5"/>
-      <c r="L11" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N11" t="s">
-        <v>87</v>
-      </c>
+    <row r="28" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="2"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="2"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="2"/>
+      <c r="AL28" s="2"/>
+      <c r="AM28" s="2"/>
+      <c r="AN28" s="2"/>
+      <c r="AO28" s="2"/>
+      <c r="AP28" s="2"/>
+      <c r="AQ28" s="2"/>
+      <c r="AR28" s="2"/>
+      <c r="AS28" s="2"/>
+      <c r="AT28" s="2"/>
+      <c r="AU28" s="2"/>
+      <c r="AV28" s="2"/>
+      <c r="AW28" s="2"/>
+      <c r="AX28" s="2"/>
+      <c r="AY28" s="2"/>
+      <c r="AZ28" s="2"/>
+      <c r="BA28" s="2"/>
+      <c r="BB28" s="2"/>
+      <c r="BC28" s="2"/>
+      <c r="BD28" s="2"/>
+      <c r="BE28" s="2"/>
+      <c r="BF28" s="2"/>
+      <c r="BG28" s="2"/>
+      <c r="BH28" s="2"/>
+      <c r="BI28" s="2"/>
+      <c r="BJ28" s="2"/>
+      <c r="BK28" s="2"/>
+      <c r="BL28" s="2"/>
+      <c r="BM28" s="2"/>
+      <c r="BN28" s="2"/>
+      <c r="BO28" s="2"/>
+      <c r="BP28" s="2"/>
+      <c r="BQ28" s="2"/>
+      <c r="BR28" s="2"/>
+      <c r="BS28" s="2"/>
+      <c r="BT28" s="2"/>
+      <c r="BU28" s="2"/>
+      <c r="BV28" s="2"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M12" s="5"/>
-      <c r="N12" t="s">
-        <v>88</v>
-      </c>
+    <row r="29" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+      <c r="AL29" s="2"/>
+      <c r="AM29" s="2"/>
+      <c r="AN29" s="2"/>
+      <c r="AO29" s="2"/>
+      <c r="AP29" s="2"/>
+      <c r="AQ29" s="2"/>
+      <c r="AR29" s="2"/>
+      <c r="AS29" s="2"/>
+      <c r="AT29" s="2"/>
+      <c r="AU29" s="2"/>
+      <c r="AV29" s="2"/>
+      <c r="AW29" s="2"/>
+      <c r="AX29" s="2"/>
+      <c r="AY29" s="2"/>
+      <c r="AZ29" s="2"/>
+      <c r="BA29" s="2"/>
+      <c r="BB29" s="2"/>
+      <c r="BC29" s="2"/>
+      <c r="BD29" s="2"/>
+      <c r="BE29" s="2"/>
+      <c r="BF29" s="2"/>
+      <c r="BG29" s="2"/>
+      <c r="BH29" s="2"/>
+      <c r="BI29" s="2"/>
+      <c r="BJ29" s="2"/>
+      <c r="BK29" s="2"/>
+      <c r="BL29" s="2"/>
+      <c r="BM29" s="2"/>
+      <c r="BN29" s="2"/>
+      <c r="BO29" s="2"/>
+      <c r="BP29" s="2"/>
+      <c r="BQ29" s="2"/>
+      <c r="BR29" s="2"/>
+      <c r="BS29" s="2"/>
+      <c r="BT29" s="2"/>
+      <c r="BU29" s="2"/>
+      <c r="BV29" s="2"/>
     </row>
-    <row r="13" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>109</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="N13" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="O13" t="s">
-        <v>92</v>
-      </c>
+    <row r="30" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+      <c r="AL30" s="2"/>
+      <c r="AM30" s="2"/>
+      <c r="AN30" s="2"/>
+      <c r="AO30" s="2"/>
+      <c r="AP30" s="2"/>
+      <c r="AQ30" s="2"/>
+      <c r="AR30" s="2"/>
+      <c r="AS30" s="2"/>
+      <c r="AT30" s="2"/>
+      <c r="AU30" s="2"/>
+      <c r="AV30" s="2"/>
+      <c r="AW30" s="2"/>
+      <c r="AX30" s="2"/>
+      <c r="AY30" s="2"/>
+      <c r="AZ30" s="2"/>
+      <c r="BA30" s="2"/>
+      <c r="BB30" s="2"/>
+      <c r="BC30" s="2"/>
+      <c r="BD30" s="2"/>
+      <c r="BE30" s="2"/>
+      <c r="BF30" s="2"/>
+      <c r="BG30" s="2"/>
+      <c r="BH30" s="2"/>
+      <c r="BI30" s="2"/>
+      <c r="BJ30" s="2"/>
+      <c r="BK30" s="2"/>
+      <c r="BL30" s="2"/>
+      <c r="BM30" s="2"/>
+      <c r="BN30" s="2"/>
+      <c r="BO30" s="2"/>
+      <c r="BP30" s="2"/>
+      <c r="BQ30" s="2"/>
+      <c r="BR30" s="2"/>
+      <c r="BS30" s="2"/>
+      <c r="BT30" s="2"/>
+      <c r="BU30" s="2"/>
+      <c r="BV30" s="2"/>
     </row>
-    <row r="14" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="N14" t="s">
-        <v>90</v>
-      </c>
-      <c r="O14" s="8" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="13"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="N15" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M16" s="5"/>
-      <c r="N16" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M17" s="5"/>
-      <c r="N17" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>108</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="M18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="N18" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="N19" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="N20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E21" s="5"/>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="G22" s="5"/>
+    <row r="31" spans="1:74" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="2"/>
+      <c r="AL31" s="2"/>
+      <c r="AM31" s="2"/>
+      <c r="AN31" s="2"/>
+      <c r="AO31" s="2"/>
+      <c r="AP31" s="2"/>
+      <c r="AQ31" s="2"/>
+      <c r="AR31" s="2"/>
+      <c r="AS31" s="2"/>
+      <c r="AT31" s="2"/>
+      <c r="AU31" s="2"/>
+      <c r="AV31" s="2"/>
+      <c r="AW31" s="2"/>
+      <c r="AX31" s="2"/>
+      <c r="AY31" s="2"/>
+      <c r="AZ31" s="2"/>
+      <c r="BA31" s="2"/>
+      <c r="BB31" s="2"/>
+      <c r="BC31" s="2"/>
+      <c r="BD31" s="2"/>
+      <c r="BE31" s="2"/>
+      <c r="BF31" s="2"/>
+      <c r="BG31" s="2"/>
+      <c r="BH31" s="2"/>
+      <c r="BI31" s="2"/>
+      <c r="BJ31" s="2"/>
+      <c r="BK31" s="2"/>
+      <c r="BL31" s="2"/>
+      <c r="BM31" s="2"/>
+      <c r="BN31" s="2"/>
+      <c r="BO31" s="2"/>
+      <c r="BP31" s="2"/>
+      <c r="BQ31" s="2"/>
+      <c r="BR31" s="2"/>
+      <c r="BS31" s="2"/>
+      <c r="BT31" s="2"/>
+      <c r="BU31" s="2"/>
+      <c r="BV31" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1421,18 +4272,21 @@
     <hyperlink ref="L14" r:id="rId13" xr:uid="{6C13F5D5-5437-294C-BB7B-495C7E057099}"/>
     <hyperlink ref="L15" r:id="rId14" xr:uid="{6B792E74-5ADA-BE48-8B2B-16CB4F9E021F}"/>
     <hyperlink ref="L16" r:id="rId15" xr:uid="{53A0DA63-4C57-F949-A592-4635F1AFBDF4}"/>
-    <hyperlink ref="L17" r:id="rId16" xr:uid="{4DDDF133-2CD6-BD48-AC32-3F3B91D248A9}"/>
-    <hyperlink ref="L18" r:id="rId17" xr:uid="{32AD0701-6101-BD49-8DA8-C3977E19568B}"/>
-    <hyperlink ref="L19" r:id="rId18" xr:uid="{D3B5716F-B5C0-AB47-854A-4243E3F0905E}"/>
-    <hyperlink ref="L20" r:id="rId19" xr:uid="{34FBC3DA-58B9-CD42-AF5D-2E596C077A96}"/>
-    <hyperlink ref="M7" r:id="rId20" xr:uid="{3CD4BD20-E5BA-BE4F-A9C7-7F4697A874D2}"/>
-    <hyperlink ref="M10" r:id="rId21" xr:uid="{A60A76A2-C0EE-BE47-B23C-59B56D355D65}"/>
-    <hyperlink ref="M11" r:id="rId22" xr:uid="{F53E2C1C-C5B7-7D40-9CA5-3BECCA50104F}"/>
-    <hyperlink ref="M13" r:id="rId23" xr:uid="{D45B9965-8CE9-CE40-9048-B37EB4D2EDCC}"/>
-    <hyperlink ref="M14" r:id="rId24" xr:uid="{0FF807DB-0EC2-4B4E-B2DD-2F0D7AF22140}"/>
-    <hyperlink ref="M15" r:id="rId25" xr:uid="{37A6F32E-95D2-BF40-91C2-253B6D5ED308}"/>
-    <hyperlink ref="M18" r:id="rId26" xr:uid="{7BEB2331-5134-9E41-804E-D29A35A34859}"/>
+    <hyperlink ref="L18" r:id="rId16" xr:uid="{32AD0701-6101-BD49-8DA8-C3977E19568B}"/>
+    <hyperlink ref="L19" r:id="rId17" xr:uid="{D3B5716F-B5C0-AB47-854A-4243E3F0905E}"/>
+    <hyperlink ref="L20" r:id="rId18" xr:uid="{34FBC3DA-58B9-CD42-AF5D-2E596C077A96}"/>
+    <hyperlink ref="M7" r:id="rId19" xr:uid="{3CD4BD20-E5BA-BE4F-A9C7-7F4697A874D2}"/>
+    <hyperlink ref="M10" r:id="rId20" display="https://baderlab.org/CellCellInteractions?action=AttachFile&amp;do=view&amp;target=receptor_ligand_interactions_mitab_v1.0_April2017.txt.zip" xr:uid="{A60A76A2-C0EE-BE47-B23C-59B56D355D65}"/>
+    <hyperlink ref="M11" r:id="rId21" xr:uid="{F53E2C1C-C5B7-7D40-9CA5-3BECCA50104F}"/>
+    <hyperlink ref="M13" r:id="rId22" xr:uid="{D45B9965-8CE9-CE40-9048-B37EB4D2EDCC}"/>
+    <hyperlink ref="M14" r:id="rId23" xr:uid="{0FF807DB-0EC2-4B4E-B2DD-2F0D7AF22140}"/>
+    <hyperlink ref="M15" r:id="rId24" xr:uid="{37A6F32E-95D2-BF40-91C2-253B6D5ED308}"/>
+    <hyperlink ref="M18" r:id="rId25" xr:uid="{7BEB2331-5134-9E41-804E-D29A35A34859}"/>
+    <hyperlink ref="L17" r:id="rId26" xr:uid="{4DDDF133-2CD6-BD48-AC32-3F3B91D248A9}"/>
+    <hyperlink ref="N21" r:id="rId27" display="https://doi.org/10.1093/bioinformatics/btab036" xr:uid="{01264FCC-104C-7D43-9314-339AB30EDA6E}"/>
+    <hyperlink ref="L21" r:id="rId28" xr:uid="{28930AE6-82CA-C245-9EE9-8086F43A56AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId29"/>
 </worksheet>
 </file>